--- a/AdminFolder/surveyValues.xlsx
+++ b/AdminFolder/surveyValues.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\sfuvault\ATLAS\TRIUMF\MATLAB\EC_GUI_MATLAB_V1\AdminFolder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320EC8FF-726F-4F20-A66F-D55678625A38}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13308" yWindow="840" windowWidth="9732" windowHeight="8964" xr2:uid="{33E62534-C944-4102-A7E3-3BAA06BB9EBF}"/>
+    <workbookView xWindow="13305" yWindow="840" windowWidth="9735" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,21 +395,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C6D332-2C9A-4F6E-AA33-5297C09D61AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -703,9 +697,9 @@
         <v>485.45999531000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.3512936099999999</v>
+        <v>22.351293609999999</v>
       </c>
       <c r="B27">
         <v>21.826273059999998</v>
